--- a/codegen/__out__/nest/src/background_task/background_task.xlsx
+++ b/codegen/__out__/nest/src/background_task/background_task.xlsx
@@ -54,6 +54,9 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
+    <t xml:space="preserve">创建人</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.lbl%&gt;</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model._create_usr_id%&gt;</t>
   </si>
 </sst>
 </file>
@@ -431,31 +437,37 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
